--- a/docs/projection_data_traffic_MNCA.xlsx
+++ b/docs/projection_data_traffic_MNCA.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="167">
   <si>
     <r>
       <t>Données environnementales sur Nice et Cagnes/Mer</t>
@@ -748,6 +748,9 @@
     <t>transaction/day
 (nb msg/day*nb devices)</t>
   </si>
+  <si>
+    <t>indice compteur d'eau</t>
+  </si>
 </sst>
 </file>
 
@@ -920,7 +923,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1011,19 +1014,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1169,6 +1159,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1210,9 +1203,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="9" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1221,48 +1211,48 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1271,7 +1261,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -42742,8 +42732,8 @@
   <dimension ref="A1:M177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42753,40 +42743,40 @@
     <col min="4" max="4" width="17.81640625" customWidth="1"/>
     <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.54296875" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.453125" style="6" customWidth="1"/>
     <col min="9" max="9" width="26.08984375" customWidth="1"/>
     <col min="10" max="10" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="11" customFormat="1" ht="54.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="2:13" s="12" customFormat="1" ht="54.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>118</v>
       </c>
     </row>
@@ -42796,20 +42786,20 @@
         <v>0</v>
       </c>
       <c r="D2" s="58"/>
-      <c r="E2" s="8">
+      <c r="E2" s="9">
         <v>15</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="9">
         <v>2000</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <v>38</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="10">
         <f>60*24*G2/E2</f>
         <v>3648</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="15">
         <f>F2*G2*24*60/E2</f>
         <v>7296000</v>
       </c>
@@ -42823,17 +42813,17 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="7"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="55"/>
@@ -42843,12 +42833,12 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="55"/>
@@ -42858,12 +42848,12 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="55"/>
@@ -42873,12 +42863,12 @@
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="55"/>
@@ -42888,12 +42878,12 @@
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="55"/>
@@ -42903,12 +42893,12 @@
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="55"/>
@@ -42918,12 +42908,12 @@
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="55"/>
@@ -42933,12 +42923,12 @@
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="55"/>
@@ -42948,12 +42938,12 @@
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="56"/>
@@ -42963,12 +42953,12 @@
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="2:13" ht="38.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="54"/>
@@ -42976,20 +42966,20 @@
         <v>12</v>
       </c>
       <c r="D13" s="58"/>
-      <c r="E13" s="8">
+      <c r="E13" s="9">
         <v>15</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="9">
         <v>3000</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <v>8</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="10">
         <f>60*24*G13/E13</f>
         <v>768</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="15">
         <f>F13*G13*24*60/E13</f>
         <v>2304000</v>
       </c>
@@ -43003,15 +42993,15 @@
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="55"/>
@@ -43021,12 +43011,12 @@
       <c r="D15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="55"/>
@@ -43036,12 +43026,12 @@
       <c r="D16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="55"/>
@@ -43051,12 +43041,12 @@
       <c r="D17" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="55"/>
@@ -43066,12 +43056,12 @@
       <c r="D18" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="55"/>
@@ -43081,12 +43071,12 @@
       <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="55"/>
@@ -43096,12 +43086,12 @@
       <c r="D20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="55"/>
@@ -43111,12 +43101,12 @@
       <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="55"/>
@@ -43126,12 +43116,12 @@
       <c r="D22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="55"/>
@@ -43141,12 +43131,12 @@
       <c r="D23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="55"/>
@@ -43156,12 +43146,12 @@
       <c r="D24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="55"/>
@@ -43171,12 +43161,12 @@
       <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="55"/>
@@ -43186,12 +43176,12 @@
       <c r="D26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="55"/>
@@ -43201,12 +43191,12 @@
       <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="55"/>
@@ -43216,12 +43206,12 @@
       <c r="D28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="55"/>
@@ -43231,12 +43221,12 @@
       <c r="D29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="55"/>
@@ -43246,12 +43236,12 @@
       <c r="D30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="55"/>
@@ -43261,12 +43251,12 @@
       <c r="D31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="55"/>
@@ -43276,12 +43266,12 @@
       <c r="D32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="55"/>
@@ -43291,12 +43281,12 @@
       <c r="D33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
     </row>
     <row r="34" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="55"/>
@@ -43306,12 +43296,12 @@
       <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="55"/>
@@ -43321,12 +43311,12 @@
       <c r="D35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="55"/>
@@ -43336,12 +43326,12 @@
       <c r="D36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
     </row>
     <row r="37" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="55"/>
@@ -43351,12 +43341,12 @@
       <c r="D37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
     </row>
     <row r="38" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="55"/>
@@ -43366,12 +43356,12 @@
       <c r="D38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
     </row>
     <row r="39" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="55"/>
@@ -43381,12 +43371,12 @@
       <c r="D39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
     </row>
     <row r="40" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="55"/>
@@ -43396,12 +43386,12 @@
       <c r="D40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
     </row>
     <row r="41" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="55"/>
@@ -43411,12 +43401,12 @@
       <c r="D41" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="55"/>
@@ -43426,12 +43416,12 @@
       <c r="D42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
     </row>
     <row r="43" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="55"/>
@@ -43441,12 +43431,12 @@
       <c r="D43" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
     </row>
     <row r="44" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="55"/>
@@ -43456,12 +43446,12 @@
       <c r="D44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="55"/>
@@ -43471,12 +43461,12 @@
       <c r="D45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
     </row>
     <row r="46" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="55"/>
@@ -43486,12 +43476,12 @@
       <c r="D46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
     </row>
     <row r="47" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="55"/>
@@ -43501,12 +43491,12 @@
       <c r="D47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
     </row>
     <row r="48" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="55"/>
@@ -43516,12 +43506,12 @@
       <c r="D48" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
     </row>
     <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="55"/>
@@ -43531,12 +43521,12 @@
       <c r="D49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
     </row>
     <row r="50" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="55"/>
@@ -43546,12 +43536,12 @@
       <c r="D50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
     </row>
     <row r="51" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="55"/>
@@ -43561,12 +43551,12 @@
       <c r="D51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
     </row>
     <row r="52" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="55"/>
@@ -43576,12 +43566,12 @@
       <c r="D52" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
     </row>
     <row r="53" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="55"/>
@@ -43591,12 +43581,12 @@
       <c r="D53" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
     </row>
     <row r="54" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B54" s="55"/>
@@ -43606,12 +43596,12 @@
       <c r="D54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
     </row>
     <row r="55" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="55"/>
@@ -43621,12 +43611,12 @@
       <c r="D55" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
     </row>
     <row r="56" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="55"/>
@@ -43636,12 +43626,12 @@
       <c r="D56" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
     </row>
     <row r="57" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="55"/>
@@ -43651,12 +43641,12 @@
       <c r="D57" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
     </row>
     <row r="58" spans="2:10" ht="18" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B58" s="56"/>
@@ -43666,12 +43656,12 @@
       <c r="D58" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
     </row>
     <row r="59" spans="2:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B59" s="54"/>
@@ -43679,20 +43669,20 @@
         <v>21</v>
       </c>
       <c r="D59" s="58"/>
-      <c r="E59" s="8">
+      <c r="E59" s="9">
         <v>180</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F59" s="9">
         <v>1000</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="10">
         <v>17</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="10">
         <f>60*24*G59/E59</f>
         <v>136</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I59" s="15">
         <f>F59*G59*24*60/E59</f>
         <v>136000</v>
       </c>
@@ -43709,12 +43699,12 @@
       <c r="D60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
     </row>
     <row r="61" spans="2:10" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="55"/>
@@ -43724,12 +43714,12 @@
       <c r="D61" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
     </row>
     <row r="62" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B62" s="55"/>
@@ -43739,12 +43729,12 @@
       <c r="D62" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
     </row>
     <row r="63" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B63" s="55"/>
@@ -43754,12 +43744,12 @@
       <c r="D63" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
     </row>
     <row r="64" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B64" s="55"/>
@@ -43769,12 +43759,12 @@
       <c r="D64" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
     </row>
     <row r="65" spans="2:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="55"/>
@@ -43784,27 +43774,27 @@
       <c r="D65" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
     </row>
     <row r="66" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B66" s="55"/>
       <c r="C66" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="D66" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
     </row>
     <row r="67" spans="2:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="55"/>
@@ -43814,12 +43804,12 @@
       <c r="D67" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
     </row>
     <row r="68" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B68" s="55"/>
@@ -43829,12 +43819,12 @@
       <c r="D68" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
     </row>
     <row r="69" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B69" s="55"/>
@@ -43844,12 +43834,12 @@
       <c r="D69" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
     </row>
     <row r="70" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B70" s="55"/>
@@ -43859,12 +43849,12 @@
       <c r="D70" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
     </row>
     <row r="71" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B71" s="55"/>
@@ -43874,12 +43864,12 @@
       <c r="D71" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
     </row>
     <row r="72" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B72" s="55"/>
@@ -43889,12 +43879,12 @@
       <c r="D72" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
     </row>
     <row r="73" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B73" s="55"/>
@@ -43904,12 +43894,12 @@
       <c r="D73" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
     </row>
     <row r="74" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B74" s="55"/>
@@ -43919,12 +43909,12 @@
       <c r="D74" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
     </row>
     <row r="75" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B75" s="56"/>
@@ -43934,12 +43924,12 @@
       <c r="D75" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
     </row>
     <row r="76" spans="2:12" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B76" s="54"/>
@@ -43947,14 +43937,14 @@
         <v>35</v>
       </c>
       <c r="D76" s="58"/>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
       <c r="L76" t="s">
         <v>137</v>
       </c>
@@ -43967,12 +43957,12 @@
       <c r="D77" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
     </row>
     <row r="78" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B78" s="55"/>
@@ -43982,12 +43972,12 @@
       <c r="D78" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
     </row>
     <row r="79" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B79" s="55"/>
@@ -43997,12 +43987,12 @@
       <c r="D79" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
     </row>
     <row r="80" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B80" s="55"/>
@@ -44012,12 +44002,12 @@
       <c r="D80" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
     </row>
     <row r="81" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B81" s="55"/>
@@ -44027,12 +44017,12 @@
       <c r="D81" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
     </row>
     <row r="82" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B82" s="55"/>
@@ -44042,12 +44032,12 @@
       <c r="D82" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
     </row>
     <row r="83" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B83" s="55"/>
@@ -44057,12 +44047,12 @@
       <c r="D83" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
     </row>
     <row r="84" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B84" s="55"/>
@@ -44072,12 +44062,12 @@
       <c r="D84" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
     </row>
     <row r="85" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B85" s="56"/>
@@ -44087,12 +44077,12 @@
       <c r="D85" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
     </row>
     <row r="86" spans="2:10" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B86" s="54"/>
@@ -44100,20 +44090,20 @@
         <v>46</v>
       </c>
       <c r="D86" s="58"/>
-      <c r="E86" s="8">
+      <c r="E86" s="9">
         <v>60</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F86" s="9">
         <v>1000</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G86" s="10">
         <v>4</v>
       </c>
-      <c r="H86" s="9">
+      <c r="H86" s="10">
         <f>60*24*G86/E86</f>
         <v>96</v>
       </c>
-      <c r="I86" s="14">
+      <c r="I86" s="15">
         <f>F86*G86*24*60/E86</f>
         <v>96000</v>
       </c>
@@ -44130,12 +44120,12 @@
       <c r="D87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
     </row>
     <row r="88" spans="2:10" ht="36" x14ac:dyDescent="0.35">
       <c r="B88" s="55"/>
@@ -44145,12 +44135,12 @@
       <c r="D88" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
     </row>
     <row r="89" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B89" s="55"/>
@@ -44160,12 +44150,12 @@
       <c r="D89" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
     </row>
     <row r="90" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B90" s="55"/>
@@ -44175,12 +44165,12 @@
       <c r="D90" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
     </row>
     <row r="91" spans="2:10" ht="36" x14ac:dyDescent="0.35">
       <c r="B91" s="55"/>
@@ -44190,12 +44180,12 @@
       <c r="D91" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
     </row>
     <row r="92" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B92" s="55"/>
@@ -44205,12 +44195,12 @@
       <c r="D92" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
     </row>
     <row r="93" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B93" s="55"/>
@@ -44220,12 +44210,12 @@
       <c r="D93" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
     </row>
     <row r="94" spans="2:10" ht="36" x14ac:dyDescent="0.35">
       <c r="B94" s="55"/>
@@ -44235,12 +44225,12 @@
       <c r="D94" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
     </row>
     <row r="95" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B95" s="55"/>
@@ -44250,12 +44240,12 @@
       <c r="D95" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
     </row>
     <row r="96" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B96" s="55"/>
@@ -44265,27 +44255,27 @@
       <c r="D96" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
     </row>
     <row r="97" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B97" s="55"/>
       <c r="C97" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D97" s="25" t="s">
+      <c r="D97" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
     </row>
     <row r="98" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B98" s="55"/>
@@ -44295,12 +44285,12 @@
       <c r="D98" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
     </row>
     <row r="99" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B99" s="55"/>
@@ -44310,12 +44300,12 @@
       <c r="D99" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
     </row>
     <row r="100" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B100" s="55"/>
@@ -44325,12 +44315,12 @@
       <c r="D100" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
     </row>
     <row r="101" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B101" s="55"/>
@@ -44340,12 +44330,12 @@
       <c r="D101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
     </row>
     <row r="102" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B102" s="55"/>
@@ -44355,12 +44345,12 @@
       <c r="D102" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
     </row>
     <row r="103" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B103" s="55"/>
@@ -44370,12 +44360,12 @@
       <c r="D103" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
     </row>
     <row r="104" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B104" s="55"/>
@@ -44385,12 +44375,12 @@
       <c r="D104" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
     </row>
     <row r="105" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B105" s="55"/>
@@ -44400,12 +44390,12 @@
       <c r="D105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
     </row>
     <row r="106" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B106" s="55"/>
@@ -44415,12 +44405,12 @@
       <c r="D106" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
     </row>
     <row r="107" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B107" s="56"/>
@@ -44430,12 +44420,12 @@
       <c r="D107" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
     </row>
     <row r="108" spans="2:12" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B108" s="54"/>
@@ -44443,20 +44433,20 @@
         <v>61</v>
       </c>
       <c r="D108" s="58"/>
-      <c r="E108" s="8">
+      <c r="E108" s="9">
         <v>30</v>
       </c>
-      <c r="F108" s="8">
+      <c r="F108" s="9">
         <v>1000</v>
       </c>
-      <c r="G108" s="9">
+      <c r="G108" s="10">
         <v>12</v>
       </c>
-      <c r="H108" s="9">
+      <c r="H108" s="10">
         <f>60*24*G108/E108</f>
         <v>576</v>
       </c>
-      <c r="I108" s="14">
+      <c r="I108" s="15">
         <f>F108*G108*24*60/E108</f>
         <v>576000</v>
       </c>
@@ -44473,15 +44463,15 @@
       <c r="C109" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D109" s="24" t="s">
+      <c r="D109" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
     </row>
     <row r="110" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B110" s="55"/>
@@ -44491,12 +44481,12 @@
       <c r="D110" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
     </row>
     <row r="111" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B111" s="55"/>
@@ -44506,12 +44496,12 @@
       <c r="D111" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
     </row>
     <row r="112" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B112" s="55"/>
@@ -44521,12 +44511,12 @@
       <c r="D112" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
     </row>
     <row r="113" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B113" s="55"/>
@@ -44536,12 +44526,12 @@
       <c r="D113" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
     </row>
     <row r="114" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B114" s="55"/>
@@ -44551,12 +44541,12 @@
       <c r="D114" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
     </row>
     <row r="115" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B115" s="55"/>
@@ -44566,12 +44556,12 @@
       <c r="D115" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
     </row>
     <row r="116" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B116" s="55"/>
@@ -44581,12 +44571,12 @@
       <c r="D116" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
     </row>
     <row r="117" spans="2:10" ht="36" x14ac:dyDescent="0.35">
       <c r="B117" s="55"/>
@@ -44596,12 +44586,12 @@
       <c r="D117" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
     </row>
     <row r="118" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B118" s="55"/>
@@ -44611,12 +44601,12 @@
       <c r="D118" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
     </row>
     <row r="119" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B119" s="56"/>
@@ -44626,12 +44616,12 @@
       <c r="D119" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
     </row>
     <row r="120" spans="2:10" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="54"/>
@@ -44639,20 +44629,20 @@
         <v>66</v>
       </c>
       <c r="D120" s="58"/>
-      <c r="E120" s="8">
+      <c r="E120" s="9">
         <v>6</v>
       </c>
-      <c r="F120" s="8">
+      <c r="F120" s="9">
         <v>1000</v>
       </c>
-      <c r="G120" s="9">
+      <c r="G120" s="10">
         <v>4</v>
       </c>
-      <c r="H120" s="9">
+      <c r="H120" s="10">
         <f>60*24*G120/E120</f>
         <v>960</v>
       </c>
-      <c r="I120" s="14">
+      <c r="I120" s="15">
         <f>F120*G120*24*60/E120</f>
         <v>960000</v>
       </c>
@@ -44669,12 +44659,12 @@
       <c r="D121" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
     </row>
     <row r="122" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B122" s="55"/>
@@ -44684,12 +44674,12 @@
       <c r="D122" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
     </row>
     <row r="123" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B123" s="56"/>
@@ -44699,12 +44689,12 @@
       <c r="D123" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
     </row>
     <row r="124" spans="2:10" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B124" s="54"/>
@@ -44712,20 +44702,20 @@
         <v>70</v>
       </c>
       <c r="D124" s="58"/>
-      <c r="E124" s="8">
+      <c r="E124" s="9">
         <v>6</v>
       </c>
-      <c r="F124" s="8">
+      <c r="F124" s="9">
         <v>1000</v>
       </c>
-      <c r="G124" s="9">
+      <c r="G124" s="10">
         <v>13</v>
       </c>
-      <c r="H124" s="9">
+      <c r="H124" s="10">
         <f>60*24*G124/E124</f>
         <v>3120</v>
       </c>
-      <c r="I124" s="14">
+      <c r="I124" s="15">
         <f>F124*G124*24*60/E124</f>
         <v>3120000</v>
       </c>
@@ -44742,12 +44732,12 @@
       <c r="D125" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
     </row>
     <row r="126" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B126" s="55"/>
@@ -44757,12 +44747,12 @@
       <c r="D126" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="8"/>
-      <c r="J126" s="8"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
     </row>
     <row r="127" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B127" s="55"/>
@@ -44772,12 +44762,12 @@
       <c r="D127" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="8"/>
-      <c r="J127" s="8"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
     </row>
     <row r="128" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B128" s="56"/>
@@ -44787,12 +44777,12 @@
       <c r="D128" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
     </row>
     <row r="129" spans="2:12" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B129" s="54"/>
@@ -44800,12 +44790,12 @@
         <v>72</v>
       </c>
       <c r="D129" s="58"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="8"/>
-      <c r="J129" s="8"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
     </row>
     <row r="130" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="56"/>
@@ -44815,12 +44805,12 @@
       <c r="D130" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="8"/>
-      <c r="J130" s="8"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
     </row>
     <row r="131" spans="2:12" ht="62.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B131" s="54"/>
@@ -44828,20 +44818,20 @@
         <v>74</v>
       </c>
       <c r="D131" s="58"/>
-      <c r="E131" s="8">
+      <c r="E131" s="9">
         <v>15</v>
       </c>
-      <c r="F131" s="8">
+      <c r="F131" s="9">
         <v>1000</v>
       </c>
-      <c r="G131" s="9">
+      <c r="G131" s="10">
         <v>11</v>
       </c>
-      <c r="H131" s="9">
+      <c r="H131" s="10">
         <f>60*24*G131/E131</f>
         <v>1056</v>
       </c>
-      <c r="I131" s="14">
+      <c r="I131" s="15">
         <f>F131*G131*24*60/E131</f>
         <v>1056000</v>
       </c>
@@ -44858,12 +44848,12 @@
       <c r="D132" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="8"/>
-      <c r="J132" s="8"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
     </row>
     <row r="133" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B133" s="56"/>
@@ -44873,12 +44863,12 @@
       <c r="D133" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="8"/>
-      <c r="J133" s="8"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
     </row>
     <row r="134" spans="2:12" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B134" s="54"/>
@@ -44886,24 +44876,24 @@
         <v>75</v>
       </c>
       <c r="D134" s="58"/>
-      <c r="E134" s="8">
+      <c r="E134" s="9">
         <v>30</v>
       </c>
-      <c r="F134" s="8">
+      <c r="F134" s="9">
         <v>1000</v>
       </c>
-      <c r="G134" s="9">
+      <c r="G134" s="10">
         <v>211</v>
       </c>
-      <c r="H134" s="9">
+      <c r="H134" s="10">
         <f>60*24*G134/E134</f>
         <v>10128</v>
       </c>
-      <c r="I134" s="14">
+      <c r="I134" s="15">
         <f>F134*G134*24*60/E134</f>
         <v>10128000</v>
       </c>
-      <c r="J134" s="19">
+      <c r="J134" s="20">
         <f>I134/(1024*1024*1024)</f>
         <v>9.4324350357055664E-3</v>
       </c>
@@ -44916,12 +44906,12 @@
       <c r="D135" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="8"/>
-      <c r="J135" s="8"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
     </row>
     <row r="136" spans="2:12" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="55"/>
@@ -44931,12 +44921,12 @@
       <c r="D136" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="8"/>
-      <c r="J136" s="8"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
     </row>
     <row r="137" spans="2:12" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B137" s="56"/>
@@ -44946,12 +44936,12 @@
       <c r="D137" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="8"/>
-      <c r="J137" s="8"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
     </row>
     <row r="138" spans="2:12" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B138" s="54"/>
@@ -44959,24 +44949,24 @@
         <v>80</v>
       </c>
       <c r="D138" s="58"/>
-      <c r="E138" s="8">
+      <c r="E138" s="9">
         <v>1</v>
       </c>
-      <c r="F138" s="8">
+      <c r="F138" s="9">
         <v>800</v>
       </c>
-      <c r="G138" s="9">
+      <c r="G138" s="10">
         <v>327</v>
       </c>
-      <c r="H138" s="9">
+      <c r="H138" s="10">
         <f>60*24*G138/E138</f>
         <v>470880</v>
       </c>
-      <c r="I138" s="14">
+      <c r="I138" s="15">
         <f>F138*G138*24*60/E138</f>
         <v>376704000</v>
       </c>
-      <c r="J138" s="19">
+      <c r="J138" s="20">
         <f>I138/(1024*1024*1024)</f>
         <v>0.35083293914794922</v>
       </c>
@@ -44989,12 +44979,12 @@
       <c r="D139" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
     </row>
     <row r="140" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="55"/>
@@ -45004,12 +44994,12 @@
       <c r="D140" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
     </row>
     <row r="141" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B141" s="56"/>
@@ -45019,12 +45009,12 @@
       <c r="D141" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="8"/>
-      <c r="J141" s="8"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
     </row>
     <row r="142" spans="2:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B142" s="54"/>
@@ -45032,22 +45022,22 @@
         <v>85</v>
       </c>
       <c r="D142" s="58"/>
-      <c r="E142" s="8">
+      <c r="E142" s="9">
         <f>24*60</f>
         <v>1440</v>
       </c>
-      <c r="F142" s="8">
+      <c r="F142" s="9">
         <v>2000</v>
       </c>
-      <c r="G142" s="9">
+      <c r="G142" s="10">
         <f>SUM(G143:G151)</f>
         <v>2055</v>
       </c>
-      <c r="H142" s="9">
+      <c r="H142" s="10">
         <f>60*24*G142/E142</f>
         <v>2055</v>
       </c>
-      <c r="I142" s="14">
+      <c r="I142" s="15">
         <f>F142*G142*24*60/E142</f>
         <v>4110000</v>
       </c>
@@ -45055,7 +45045,7 @@
         <f>I142/(1024*1024*1024)</f>
         <v>3.8277357816696167E-3</v>
       </c>
-      <c r="L142" s="5" t="s">
+      <c r="L142" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -45067,13 +45057,13 @@
       <c r="D143" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E143" s="8"/>
-      <c r="G143" s="13">
+      <c r="E143" s="9"/>
+      <c r="G143" s="14">
         <v>106</v>
       </c>
-      <c r="H143" s="13"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
     </row>
     <row r="144" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B144" s="55"/>
@@ -45083,14 +45073,14 @@
       <c r="D144" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E144" s="8"/>
-      <c r="G144" s="13">
+      <c r="E144" s="9"/>
+      <c r="G144" s="14">
         <f>253+159</f>
         <v>412</v>
       </c>
-      <c r="H144" s="13"/>
-      <c r="I144" s="8"/>
-      <c r="J144" s="8"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
     </row>
     <row r="145" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B145" s="55"/>
@@ -45100,14 +45090,14 @@
       <c r="D145" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E145" s="8"/>
-      <c r="G145" s="13">
+      <c r="E145" s="9"/>
+      <c r="G145" s="14">
         <f>111+454</f>
         <v>565</v>
       </c>
-      <c r="H145" s="13"/>
-      <c r="I145" s="8"/>
-      <c r="J145" s="8"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
     </row>
     <row r="146" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B146" s="55"/>
@@ -45117,13 +45107,13 @@
       <c r="D146" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E146" s="8"/>
-      <c r="G146" s="13">
+      <c r="E146" s="9"/>
+      <c r="G146" s="14">
         <v>296</v>
       </c>
-      <c r="H146" s="13"/>
-      <c r="I146" s="8"/>
-      <c r="J146" s="8"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
     </row>
     <row r="147" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B147" s="55"/>
@@ -45133,13 +45123,13 @@
       <c r="D147" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E147" s="8"/>
-      <c r="G147" s="13">
+      <c r="E147" s="9"/>
+      <c r="G147" s="14">
         <v>126</v>
       </c>
-      <c r="H147" s="13"/>
-      <c r="I147" s="8"/>
-      <c r="J147" s="8"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
     </row>
     <row r="148" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B148" s="55"/>
@@ -45149,13 +45139,13 @@
       <c r="D148" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E148" s="8"/>
-      <c r="G148" s="13">
+      <c r="E148" s="9"/>
+      <c r="G148" s="14">
         <v>86</v>
       </c>
-      <c r="H148" s="13"/>
-      <c r="I148" s="8"/>
-      <c r="J148" s="8"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
     </row>
     <row r="149" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B149" s="55"/>
@@ -45165,13 +45155,13 @@
       <c r="D149" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E149" s="8"/>
-      <c r="G149" s="13">
+      <c r="E149" s="9"/>
+      <c r="G149" s="14">
         <v>138</v>
       </c>
-      <c r="H149" s="13"/>
-      <c r="I149" s="8"/>
-      <c r="J149" s="8"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
     </row>
     <row r="150" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B150" s="55"/>
@@ -45181,13 +45171,13 @@
       <c r="D150" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E150" s="8"/>
-      <c r="G150" s="13">
+      <c r="E150" s="9"/>
+      <c r="G150" s="14">
         <v>145</v>
       </c>
-      <c r="H150" s="13"/>
-      <c r="I150" s="8"/>
-      <c r="J150" s="8"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
     </row>
     <row r="151" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B151" s="56"/>
@@ -45197,13 +45187,13 @@
       <c r="D151" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E151" s="8"/>
-      <c r="G151" s="13">
+      <c r="E151" s="9"/>
+      <c r="G151" s="14">
         <v>181</v>
       </c>
-      <c r="H151" s="13"/>
-      <c r="I151" s="8"/>
-      <c r="J151" s="8"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
     </row>
     <row r="152" spans="2:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B152" s="54"/>
@@ -45211,25 +45201,25 @@
         <v>95</v>
       </c>
       <c r="D152" s="58"/>
-      <c r="E152" s="8">
+      <c r="E152" s="9">
         <f>40/60</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F152" s="8">
+      <c r="F152" s="9">
         <v>1000</v>
       </c>
-      <c r="G152" s="9">
+      <c r="G152" s="10">
         <v>13</v>
       </c>
-      <c r="H152" s="9">
+      <c r="H152" s="10">
         <f>60*24*G152/E152</f>
         <v>28080</v>
       </c>
-      <c r="I152" s="14">
+      <c r="I152" s="15">
         <f>F152*G152*24*60/E152</f>
         <v>28080000</v>
       </c>
-      <c r="J152" s="19">
+      <c r="J152" s="20">
         <f>I152/(1024*1024*1024)</f>
         <v>2.6151537895202637E-2</v>
       </c>
@@ -45242,12 +45232,12 @@
       <c r="D153" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="9"/>
-      <c r="I153" s="8"/>
-      <c r="J153" s="8"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
     </row>
     <row r="154" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="55"/>
@@ -45257,12 +45247,12 @@
       <c r="D154" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="9"/>
-      <c r="I154" s="8"/>
-      <c r="J154" s="8"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
     </row>
     <row r="155" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="55"/>
@@ -45272,12 +45262,12 @@
       <c r="D155" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="9"/>
-      <c r="I155" s="8"/>
-      <c r="J155" s="8"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
     </row>
     <row r="156" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B156" s="56"/>
@@ -45287,12 +45277,12 @@
       <c r="D156" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="9"/>
-      <c r="I156" s="8"/>
-      <c r="J156" s="8"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
     </row>
     <row r="157" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="54"/>
@@ -45300,25 +45290,25 @@
         <v>101</v>
       </c>
       <c r="D157" s="58"/>
-      <c r="E157" s="8">
+      <c r="E157" s="9">
         <v>1</v>
       </c>
-      <c r="F157" s="8">
+      <c r="F157" s="9">
         <f>216*100</f>
         <v>21600</v>
       </c>
-      <c r="G157" s="9">
+      <c r="G157" s="10">
         <v>28</v>
       </c>
-      <c r="H157" s="9">
+      <c r="H157" s="10">
         <f>60*24*G157/E157</f>
         <v>40320</v>
       </c>
-      <c r="I157" s="14">
+      <c r="I157" s="15">
         <f>F157*G157*24*60/E157</f>
         <v>870912000</v>
       </c>
-      <c r="J157" s="19">
+      <c r="J157" s="20">
         <f>I157/(1024*1024*1024)</f>
         <v>0.81110000610351563</v>
       </c>
@@ -45331,12 +45321,12 @@
       <c r="D158" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="9"/>
-      <c r="I158" s="8"/>
-      <c r="J158" s="8"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="10"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
     </row>
     <row r="159" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="55"/>
@@ -45346,12 +45336,12 @@
       <c r="D159" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="9"/>
-      <c r="I159" s="8"/>
-      <c r="J159" s="8"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
     </row>
     <row r="160" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="55"/>
@@ -45361,12 +45351,12 @@
       <c r="D160" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="9"/>
-      <c r="I160" s="8"/>
-      <c r="J160" s="8"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="10"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
     </row>
     <row r="161" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="55"/>
@@ -45376,12 +45366,12 @@
       <c r="D161" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
-      <c r="I161" s="8"/>
-      <c r="J161" s="8"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="10"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
     </row>
     <row r="162" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="55"/>
@@ -45391,12 +45381,12 @@
       <c r="D162" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="9"/>
-      <c r="I162" s="8"/>
-      <c r="J162" s="8"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="10"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
     </row>
     <row r="163" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="55"/>
@@ -45406,12 +45396,12 @@
       <c r="D163" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="9"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="8"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="10"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9"/>
     </row>
     <row r="164" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="55"/>
@@ -45421,12 +45411,12 @@
       <c r="D164" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="9"/>
-      <c r="I164" s="8"/>
-      <c r="J164" s="8"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
     </row>
     <row r="165" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="55"/>
@@ -45436,12 +45426,12 @@
       <c r="D165" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="9"/>
-      <c r="I165" s="8"/>
-      <c r="J165" s="8"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="10"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="9"/>
     </row>
     <row r="166" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="55"/>
@@ -45451,12 +45441,12 @@
       <c r="D166" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="9"/>
-      <c r="I166" s="8"/>
-      <c r="J166" s="8"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="9"/>
     </row>
     <row r="167" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="55"/>
@@ -45466,12 +45456,12 @@
       <c r="D167" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="9"/>
-      <c r="I167" s="8"/>
-      <c r="J167" s="8"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="10"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="9"/>
     </row>
     <row r="168" spans="2:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B168" s="56"/>
@@ -45481,57 +45471,61 @@
       <c r="D168" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8"/>
-      <c r="G168" s="9"/>
-      <c r="H168" s="9"/>
-      <c r="I168" s="8"/>
-      <c r="J168" s="8"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="10"/>
+      <c r="H168" s="10"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="9"/>
     </row>
     <row r="169" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B169" s="17"/>
-      <c r="C169" s="17"/>
-      <c r="D169" s="17"/>
-      <c r="E169" s="8"/>
-      <c r="F169" s="8"/>
-      <c r="G169" s="9"/>
-      <c r="H169" s="9"/>
-      <c r="I169" s="8"/>
-      <c r="J169" s="8"/>
+      <c r="B169" s="18"/>
+      <c r="C169" s="18"/>
+      <c r="D169" s="18"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="10"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="9"/>
     </row>
-    <row r="170" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B170" s="27" t="s">
+    <row r="170" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B170" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="C170" s="53"/>
-      <c r="D170" s="28"/>
-      <c r="E170" s="8">
+      <c r="C170" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E170" s="9">
         <f>24*60</f>
         <v>1440</v>
       </c>
-      <c r="F170" s="8">
+      <c r="F170" s="9">
         <v>100</v>
       </c>
       <c r="G170" s="31">
         <v>60000</v>
       </c>
-      <c r="H170" s="9">
+      <c r="H170" s="10">
         <f>60*24*G170/E170</f>
         <v>60000</v>
       </c>
-      <c r="I170" s="14">
+      <c r="I170" s="15">
         <f>F170*G170*24*60/E170</f>
         <v>6000000</v>
       </c>
-      <c r="J170" s="19">
+      <c r="J170" s="20">
         <f>I170/(1024*1024*1024)</f>
         <v>5.5879354476928711E-3</v>
       </c>
     </row>
     <row r="171" spans="2:10" s="49" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B171" s="26"/>
-      <c r="C171" s="17"/>
-      <c r="D171" s="17"/>
+      <c r="B171" s="27"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="18"/>
       <c r="E171" s="50"/>
       <c r="F171" s="50"/>
       <c r="G171" s="51"/>
@@ -45545,77 +45539,77 @@
       </c>
       <c r="C172" s="47"/>
       <c r="D172" s="48"/>
-      <c r="E172" s="8">
+      <c r="E172" s="9">
         <v>5</v>
       </c>
-      <c r="F172" s="8">
+      <c r="F172" s="9">
         <v>100</v>
       </c>
       <c r="G172" s="31">
         <v>0</v>
       </c>
-      <c r="H172" s="9">
+      <c r="H172" s="10">
         <f>60*24*G172/E172</f>
         <v>0</v>
       </c>
-      <c r="I172" s="14">
+      <c r="I172" s="15">
         <f>F172*G172*24*60/E172</f>
         <v>0</v>
       </c>
-      <c r="J172" s="19">
+      <c r="J172" s="20">
         <f>I172/(1024*1024*1024)</f>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B173" s="26"/>
-      <c r="C173" s="17"/>
-      <c r="D173" s="17"/>
-      <c r="E173" s="8"/>
-      <c r="F173" s="8"/>
+      <c r="B173" s="27"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="18"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
       <c r="G173" s="31"/>
       <c r="H173" s="31"/>
-      <c r="I173" s="14"/>
+      <c r="I173" s="15"/>
       <c r="J173" s="59"/>
     </row>
     <row r="174" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B174" s="26"/>
-      <c r="C174" s="17"/>
-      <c r="D174" s="17"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8"/>
+      <c r="B174" s="27"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
       <c r="G174" s="31"/>
       <c r="H174" s="31"/>
-      <c r="I174" s="14"/>
+      <c r="I174" s="15"/>
       <c r="J174" s="59"/>
     </row>
     <row r="176" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="J176" s="18" t="s">
+      <c r="J176" s="19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="177" spans="1:10" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A177" s="23" t="s">
+    <row r="177" spans="1:10" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B177" s="15"/>
-      <c r="C177" s="15"/>
-      <c r="D177" s="15"/>
-      <c r="E177" s="15"/>
-      <c r="F177" s="15"/>
-      <c r="G177" s="15">
+      <c r="B177" s="16"/>
+      <c r="C177" s="16"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="16"/>
+      <c r="F177" s="16"/>
+      <c r="G177" s="16">
         <f>SUM(G2:G175)</f>
         <v>64796</v>
       </c>
-      <c r="H177" s="15">
+      <c r="H177" s="16">
         <f>SUM(H2:H172)</f>
         <v>621823</v>
       </c>
-      <c r="I177" s="16">
+      <c r="I177" s="17">
         <f>SUM(I2:I175)</f>
         <v>1311478000</v>
       </c>
-      <c r="J177" s="19">
+      <c r="J177" s="20">
         <f>I177/(1024*1024*1024)</f>
         <v>1.2214090675115585</v>
       </c>
@@ -45676,35 +45670,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="21"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="21">
         <f>'estimation daily'!$J$177</f>
         <v>1.2214090675115585</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="21">
         <f>B2*182</f>
         <v>222.29645028710365</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="21"/>
     </row>
     <row r="5" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
@@ -45720,7 +45714,7 @@
       <c r="A6" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="21">
         <f>B5*2</f>
         <v>891.62861928343773</v>
       </c>
@@ -45729,7 +45723,7 @@
       <c r="A7" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="21">
         <f>B5*3</f>
         <v>1337.4429289251566</v>
       </c>
@@ -45748,7 +45742,7 @@
       <c r="A9" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="21">
         <f>B5*5</f>
         <v>2229.0715482085943</v>
       </c>
@@ -45757,7 +45751,7 @@
       <c r="A10" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="21">
         <f>B5*8</f>
         <v>3566.5144771337509</v>
       </c>

--- a/docs/projection_data_traffic_MNCA.xlsx
+++ b/docs/projection_data_traffic_MNCA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="estimation daily" sheetId="1" r:id="rId1"/>
@@ -11350,7 +11350,7 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.81110000610351563</c:v>
+                  <c:v>2.4333000183105469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13019,7 +13019,7 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.2214090675115585</c:v>
+                  <c:v>2.8436090797185898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30897,7 +30897,7 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.81110000610351563</c:v>
+                  <c:v>2.4333000183105469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32529,7 +32529,7 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.2214090675115585</c:v>
+                  <c:v>2.8436090797185898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -42731,9 +42731,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C171" sqref="C171"/>
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45298,19 +45298,20 @@
         <v>21600</v>
       </c>
       <c r="G157" s="10">
-        <v>28</v>
+        <f>28*3</f>
+        <v>84</v>
       </c>
       <c r="H157" s="10">
         <f>60*24*G157/E157</f>
-        <v>40320</v>
+        <v>120960</v>
       </c>
       <c r="I157" s="15">
         <f>F157*G157*24*60/E157</f>
-        <v>870912000</v>
+        <v>2612736000</v>
       </c>
       <c r="J157" s="20">
         <f>I157/(1024*1024*1024)</f>
-        <v>0.81110000610351563</v>
+        <v>2.4333000183105469</v>
       </c>
     </row>
     <row r="158" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -45599,19 +45600,19 @@
       <c r="F177" s="16"/>
       <c r="G177" s="16">
         <f>SUM(G2:G175)</f>
-        <v>64796</v>
+        <v>64852</v>
       </c>
       <c r="H177" s="16">
         <f>SUM(H2:H172)</f>
-        <v>621823</v>
+        <v>702463</v>
       </c>
       <c r="I177" s="17">
         <f>SUM(I2:I175)</f>
-        <v>1311478000</v>
+        <v>3053302000</v>
       </c>
       <c r="J177" s="20">
         <f>I177/(1024*1024*1024)</f>
-        <v>1.2214090675115585</v>
+        <v>2.8436090797185898</v>
       </c>
     </row>
   </sheetData>
@@ -45658,7 +45659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3D2024-EBBF-4B69-86D6-C5FD9D672141}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
@@ -45682,7 +45683,7 @@
       </c>
       <c r="B2" s="21">
         <f>'estimation daily'!$J$177</f>
-        <v>1.2214090675115585</v>
+        <v>2.8436090797185898</v>
       </c>
       <c r="C2" s="21"/>
     </row>
@@ -45696,7 +45697,7 @@
       </c>
       <c r="B4" s="21">
         <f>B2*182</f>
-        <v>222.29645028710365</v>
+        <v>517.53685250878334</v>
       </c>
       <c r="C4" s="21"/>
     </row>
@@ -45706,7 +45707,7 @@
       </c>
       <c r="B5" s="45">
         <f>B2*365</f>
-        <v>445.81430964171886</v>
+        <v>1037.9173140972853</v>
       </c>
       <c r="C5" s="45"/>
     </row>
@@ -45716,7 +45717,7 @@
       </c>
       <c r="B6" s="21">
         <f>B5*2</f>
-        <v>891.62861928343773</v>
+        <v>2075.8346281945705</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -45725,7 +45726,7 @@
       </c>
       <c r="B7" s="21">
         <f>B5*3</f>
-        <v>1337.4429289251566</v>
+        <v>3113.7519422918558</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -45734,7 +45735,7 @@
       </c>
       <c r="B8" s="45">
         <f>B5*4</f>
-        <v>1783.2572385668755</v>
+        <v>4151.6692563891411</v>
       </c>
       <c r="C8" s="44"/>
     </row>
@@ -45744,7 +45745,7 @@
       </c>
       <c r="B9" s="21">
         <f>B5*5</f>
-        <v>2229.0715482085943</v>
+        <v>5189.5865704864264</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -45753,7 +45754,7 @@
       </c>
       <c r="B10" s="21">
         <f>B5*8</f>
-        <v>3566.5144771337509</v>
+        <v>8303.3385127782822</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -45762,7 +45763,7 @@
       </c>
       <c r="B11" s="45">
         <f>B5*9</f>
-        <v>4012.3287867754698</v>
+        <v>9341.2558268755674</v>
       </c>
       <c r="C11" s="44"/>
     </row>
@@ -45772,7 +45773,7 @@
       </c>
       <c r="B12" s="45">
         <f>B5*10</f>
-        <v>4458.1430964171886</v>
+        <v>10379.173140972853</v>
       </c>
       <c r="C12" s="44"/>
     </row>
